--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3352,28 +3352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.9415915412218</v>
+        <v>350.9709631666526</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.7682857110211</v>
+        <v>480.2139555507221</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.4325054607207</v>
+        <v>434.38300961748</v>
       </c>
       <c r="AD2" t="n">
-        <v>262941.5915412218</v>
+        <v>350970.9631666526</v>
       </c>
       <c r="AE2" t="n">
-        <v>359768.2857110211</v>
+        <v>480213.9555507221</v>
       </c>
       <c r="AF2" t="n">
         <v>8.6841006353576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.0787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>325432.5054607207</v>
+        <v>434383.00961748</v>
       </c>
     </row>
     <row r="3">
@@ -3458,28 +3458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.8582567421772</v>
+        <v>252.2764204081295</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.5629781283558</v>
+        <v>345.175728052418</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.554160566716</v>
+        <v>312.2326410243751</v>
       </c>
       <c r="AD3" t="n">
-        <v>183858.2567421772</v>
+        <v>252276.4204081295</v>
       </c>
       <c r="AE3" t="n">
-        <v>251562.9781283558</v>
+        <v>345175.728052418</v>
       </c>
       <c r="AF3" t="n">
         <v>1.163001487828002e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.49537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>227554.160566716</v>
+        <v>312232.6410243751</v>
       </c>
     </row>
     <row r="4">
@@ -3564,28 +3564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>166.9247723908457</v>
+        <v>225.5885802052305</v>
       </c>
       <c r="AB4" t="n">
-        <v>228.3938377862704</v>
+        <v>308.6602477024159</v>
       </c>
       <c r="AC4" t="n">
-        <v>206.5962504607791</v>
+        <v>279.2021468691671</v>
       </c>
       <c r="AD4" t="n">
-        <v>166924.7723908457</v>
+        <v>225588.5802052305</v>
       </c>
       <c r="AE4" t="n">
-        <v>228393.8377862704</v>
+        <v>308660.2477024159</v>
       </c>
       <c r="AF4" t="n">
         <v>1.278266959494548e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.28009259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>206596.2504607791</v>
+        <v>279202.146869167</v>
       </c>
     </row>
     <row r="5">
@@ -3670,28 +3670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.227138648352</v>
+        <v>212.9582662704413</v>
       </c>
       <c r="AB5" t="n">
-        <v>211.0203751197341</v>
+        <v>291.378894966721</v>
       </c>
       <c r="AC5" t="n">
-        <v>190.8808866873235</v>
+        <v>263.5701021840305</v>
       </c>
       <c r="AD5" t="n">
-        <v>154227.138648352</v>
+        <v>212958.2662704413</v>
       </c>
       <c r="AE5" t="n">
-        <v>211020.3751197341</v>
+        <v>291378.894966721</v>
       </c>
       <c r="AF5" t="n">
         <v>1.328278613554104e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.81712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>190880.8866873235</v>
+        <v>263570.1021840305</v>
       </c>
     </row>
     <row r="6">
@@ -3776,28 +3776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>152.282943967837</v>
+        <v>211.0140715899263</v>
       </c>
       <c r="AB6" t="n">
-        <v>208.360242186039</v>
+        <v>288.7187620330259</v>
       </c>
       <c r="AC6" t="n">
-        <v>188.4746331072994</v>
+        <v>261.1638486040064</v>
       </c>
       <c r="AD6" t="n">
-        <v>152282.943967837</v>
+        <v>211014.0715899263</v>
       </c>
       <c r="AE6" t="n">
-        <v>208360.242186039</v>
+        <v>288718.7620330259</v>
       </c>
       <c r="AF6" t="n">
         <v>1.363793939471125e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.50462962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>188474.6331072994</v>
+        <v>261163.8486040064</v>
       </c>
     </row>
     <row r="7">
@@ -3882,28 +3882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>150.9695524788113</v>
+        <v>209.5991948744154</v>
       </c>
       <c r="AB7" t="n">
-        <v>206.5632020080117</v>
+        <v>286.7828652909094</v>
       </c>
       <c r="AC7" t="n">
-        <v>186.8490999217008</v>
+        <v>259.4127111299088</v>
       </c>
       <c r="AD7" t="n">
-        <v>150969.5524788113</v>
+        <v>209599.1948744153</v>
       </c>
       <c r="AE7" t="n">
-        <v>206563.2020080117</v>
+        <v>286782.8652909094</v>
       </c>
       <c r="AF7" t="n">
         <v>1.382914447124046e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.35416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>186849.0999217008</v>
+        <v>259412.7111299088</v>
       </c>
     </row>
     <row r="8">
@@ -3988,28 +3988,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>149.6648519239985</v>
+        <v>198.574303886816</v>
       </c>
       <c r="AB8" t="n">
-        <v>204.7780531495917</v>
+        <v>271.6981230578205</v>
       </c>
       <c r="AC8" t="n">
-        <v>185.2343231648556</v>
+        <v>245.7676355239723</v>
       </c>
       <c r="AD8" t="n">
-        <v>149664.8519239985</v>
+        <v>198574.303886816</v>
       </c>
       <c r="AE8" t="n">
-        <v>204778.0531495917</v>
+        <v>271698.1230578204</v>
       </c>
       <c r="AF8" t="n">
         <v>1.402862154044222e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.19212962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>185234.3231648556</v>
+        <v>245767.6355239723</v>
       </c>
     </row>
     <row r="9">
@@ -4094,28 +4094,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>148.2653038605196</v>
+        <v>197.1747558233371</v>
       </c>
       <c r="AB9" t="n">
-        <v>202.8631297454379</v>
+        <v>269.7831996536667</v>
       </c>
       <c r="AC9" t="n">
-        <v>183.5021573627818</v>
+        <v>244.0354697218985</v>
       </c>
       <c r="AD9" t="n">
-        <v>148265.3038605196</v>
+        <v>197174.7558233371</v>
       </c>
       <c r="AE9" t="n">
-        <v>202863.1297454379</v>
+        <v>269783.1996536666</v>
       </c>
       <c r="AF9" t="n">
         <v>1.424640547867336e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.01851851851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>183502.1573627818</v>
+        <v>244035.4697218985</v>
       </c>
     </row>
     <row r="10">
@@ -4200,28 +4200,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>137.5276110918464</v>
+        <v>196.2245732951549</v>
       </c>
       <c r="AB10" t="n">
-        <v>188.1713447857746</v>
+        <v>268.4831179995138</v>
       </c>
       <c r="AC10" t="n">
-        <v>170.2125357396144</v>
+        <v>242.8594660361414</v>
       </c>
       <c r="AD10" t="n">
-        <v>137527.6110918464</v>
+        <v>196224.5732951549</v>
       </c>
       <c r="AE10" t="n">
-        <v>188171.3447857746</v>
+        <v>268483.1179995137</v>
       </c>
       <c r="AF10" t="n">
         <v>1.430363139519487e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.97222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>170212.5357396144</v>
+        <v>242859.4660361414</v>
       </c>
     </row>
     <row r="11">
@@ -4306,28 +4306,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>137.5799837235787</v>
+        <v>196.2769459268872</v>
       </c>
       <c r="AB11" t="n">
-        <v>188.2430033310281</v>
+        <v>268.5547765447673</v>
       </c>
       <c r="AC11" t="n">
-        <v>170.2773552938824</v>
+        <v>242.9242855904095</v>
       </c>
       <c r="AD11" t="n">
-        <v>137579.9837235787</v>
+        <v>196276.9459268872</v>
       </c>
       <c r="AE11" t="n">
-        <v>188243.0033310282</v>
+        <v>268554.7765447673</v>
       </c>
       <c r="AF11" t="n">
         <v>1.431203899430467e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.97222222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>170277.3552938824</v>
+        <v>242924.2855904094</v>
       </c>
     </row>
     <row r="12">
@@ -4412,28 +4412,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>137.617382144804</v>
+        <v>196.3143443481125</v>
       </c>
       <c r="AB12" t="n">
-        <v>188.2941735008504</v>
+        <v>268.6059467145896</v>
       </c>
       <c r="AC12" t="n">
-        <v>170.3236418545146</v>
+        <v>242.9705721510417</v>
       </c>
       <c r="AD12" t="n">
-        <v>137617.382144804</v>
+        <v>196314.3443481125</v>
       </c>
       <c r="AE12" t="n">
-        <v>188294.1735008504</v>
+        <v>268605.9467145896</v>
       </c>
       <c r="AF12" t="n">
         <v>1.430580109819095e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.97222222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>170323.6418545146</v>
+        <v>242970.5721510417</v>
       </c>
     </row>
   </sheetData>
@@ -4709,28 +4709,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>211.7520187958357</v>
+        <v>298.8086303092497</v>
       </c>
       <c r="AB2" t="n">
-        <v>289.7284539560836</v>
+        <v>408.8431504955112</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.0771769470394</v>
+        <v>369.8237340271843</v>
       </c>
       <c r="AD2" t="n">
-        <v>211752.0187958357</v>
+        <v>298808.6303092497</v>
       </c>
       <c r="AE2" t="n">
-        <v>289728.4539560836</v>
+        <v>408843.1504955112</v>
       </c>
       <c r="AF2" t="n">
         <v>1.083444292623474e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.85648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>262077.1769470394</v>
+        <v>369823.7340271844</v>
       </c>
     </row>
     <row r="3">
@@ -4815,28 +4815,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.5213369036901</v>
+        <v>221.6387972231188</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.7371072037697</v>
+        <v>303.2559803741661</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.3839517093084</v>
+        <v>274.313655229787</v>
       </c>
       <c r="AD3" t="n">
-        <v>163521.3369036901</v>
+        <v>221638.7972231188</v>
       </c>
       <c r="AE3" t="n">
-        <v>223737.1072037697</v>
+        <v>303255.9803741662</v>
       </c>
       <c r="AF3" t="n">
         <v>1.371506132651304e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.52314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>202383.9517093084</v>
+        <v>274313.655229787</v>
       </c>
     </row>
     <row r="4">
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.225982876525</v>
+        <v>207.3092777771729</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.1775731573028</v>
+        <v>283.6496996944514</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.6911521402517</v>
+        <v>256.5785704605503</v>
       </c>
       <c r="AD4" t="n">
-        <v>149225.982876525</v>
+        <v>207309.2777771729</v>
       </c>
       <c r="AE4" t="n">
-        <v>204177.5731573028</v>
+        <v>283649.6996944515</v>
       </c>
       <c r="AF4" t="n">
         <v>1.468649475942857e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.68981481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>184691.1521402517</v>
+        <v>256578.5704605503</v>
       </c>
     </row>
     <row r="5">
@@ -5027,28 +5027,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>146.5557992260809</v>
+        <v>204.5376089002435</v>
       </c>
       <c r="AB5" t="n">
-        <v>200.5241100865782</v>
+        <v>279.8573800596376</v>
       </c>
       <c r="AC5" t="n">
-        <v>181.3863704573282</v>
+        <v>253.1481844891278</v>
       </c>
       <c r="AD5" t="n">
-        <v>146555.7992260809</v>
+        <v>204537.6089002435</v>
       </c>
       <c r="AE5" t="n">
-        <v>200524.1100865781</v>
+        <v>279857.3800596377</v>
       </c>
       <c r="AF5" t="n">
         <v>1.527273784686545e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>181386.3704573282</v>
+        <v>253148.1844891278</v>
       </c>
     </row>
     <row r="6">
@@ -5133,28 +5133,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>145.0101322730872</v>
+        <v>193.3797236347035</v>
       </c>
       <c r="AB6" t="n">
-        <v>198.4092603714799</v>
+        <v>264.5906691881769</v>
       </c>
       <c r="AC6" t="n">
-        <v>179.473359030828</v>
+        <v>239.3385070762711</v>
       </c>
       <c r="AD6" t="n">
-        <v>145010.1322730872</v>
+        <v>193379.7236347035</v>
       </c>
       <c r="AE6" t="n">
-        <v>198409.2603714799</v>
+        <v>264590.6691881769</v>
       </c>
       <c r="AF6" t="n">
         <v>1.556014682190094e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>179473.3590308281</v>
+        <v>239338.5070762711</v>
       </c>
     </row>
     <row r="7">
@@ -5239,28 +5239,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>133.6971003986385</v>
+        <v>191.7462298805056</v>
       </c>
       <c r="AB7" t="n">
-        <v>182.9302710651251</v>
+        <v>262.355650969026</v>
       </c>
       <c r="AC7" t="n">
-        <v>165.4716627389689</v>
+        <v>237.3167958590875</v>
       </c>
       <c r="AD7" t="n">
-        <v>133697.1003986385</v>
+        <v>191746.2298805056</v>
       </c>
       <c r="AE7" t="n">
-        <v>182930.2710651251</v>
+        <v>262355.650969026</v>
       </c>
       <c r="AF7" t="n">
         <v>1.576772821378254e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.8912037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>165471.6627389689</v>
+        <v>237316.7958590875</v>
       </c>
     </row>
     <row r="8">
@@ -5345,28 +5345,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>132.7969085201611</v>
+        <v>190.8460380020282</v>
       </c>
       <c r="AB8" t="n">
-        <v>181.6985888233301</v>
+        <v>261.123968727231</v>
       </c>
       <c r="AC8" t="n">
-        <v>164.3575305216535</v>
+        <v>236.2026636417722</v>
       </c>
       <c r="AD8" t="n">
-        <v>132796.9085201611</v>
+        <v>190846.0380020282</v>
       </c>
       <c r="AE8" t="n">
-        <v>181698.5888233301</v>
+        <v>261123.968727231</v>
       </c>
       <c r="AF8" t="n">
         <v>1.596329095466885e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.76388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>164357.5305216535</v>
+        <v>236202.6636417722</v>
       </c>
     </row>
     <row r="9">
@@ -5451,28 +5451,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>132.90068313521</v>
+        <v>190.9498126170772</v>
       </c>
       <c r="AB9" t="n">
-        <v>181.8405778298529</v>
+        <v>261.2659577337539</v>
       </c>
       <c r="AC9" t="n">
-        <v>164.4859682966767</v>
+        <v>236.3311014167953</v>
       </c>
       <c r="AD9" t="n">
-        <v>132900.68313521</v>
+        <v>190949.8126170771</v>
       </c>
       <c r="AE9" t="n">
-        <v>181840.5778298529</v>
+        <v>261265.9577337538</v>
       </c>
       <c r="AF9" t="n">
         <v>1.595186581730295e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.76388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>164485.9682966767</v>
+        <v>236331.1014167953</v>
       </c>
     </row>
   </sheetData>
@@ -5748,28 +5748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.3157534530711</v>
+        <v>202.7357947935942</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.8814718179029</v>
+        <v>277.3920585084931</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.9503278409571</v>
+        <v>250.9181497667232</v>
       </c>
       <c r="AD2" t="n">
-        <v>137315.7534530711</v>
+        <v>202735.7947935942</v>
       </c>
       <c r="AE2" t="n">
-        <v>187881.4718179029</v>
+        <v>277392.0585084931</v>
       </c>
       <c r="AF2" t="n">
         <v>2.006776483569714e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.94444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>169950.3278409571</v>
+        <v>250918.1497667232</v>
       </c>
     </row>
     <row r="3">
@@ -5854,28 +5854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.2380450019232</v>
+        <v>178.3367700215007</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.2514859335021</v>
+        <v>244.0082364063277</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.2892388549898</v>
+        <v>220.7204327914893</v>
       </c>
       <c r="AD3" t="n">
-        <v>122238.0450019232</v>
+        <v>178336.7700215007</v>
       </c>
       <c r="AE3" t="n">
-        <v>167251.4859335021</v>
+        <v>244008.2364063277</v>
       </c>
       <c r="AF3" t="n">
         <v>2.247597117345254e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.65972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>151289.2388549898</v>
+        <v>220720.4327914893</v>
       </c>
     </row>
     <row r="4">
@@ -5960,28 +5960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.01562557442</v>
+        <v>178.1143505939976</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.9471618603398</v>
+        <v>243.7039123331654</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.0139590442485</v>
+        <v>220.445152980748</v>
       </c>
       <c r="AD4" t="n">
-        <v>122015.62557442</v>
+        <v>178114.3505939976</v>
       </c>
       <c r="AE4" t="n">
-        <v>166947.1618603398</v>
+        <v>243703.9123331654</v>
       </c>
       <c r="AF4" t="n">
         <v>2.259319208738182e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.61342592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>151013.9590442485</v>
+        <v>220445.152980748</v>
       </c>
     </row>
   </sheetData>
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.3187983486637</v>
+        <v>224.1810647306126</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.9329614849551</v>
+        <v>306.7344229348442</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.0839209503264</v>
+        <v>277.4601201144999</v>
       </c>
       <c r="AD2" t="n">
-        <v>167318.7983486637</v>
+        <v>224181.0647306126</v>
       </c>
       <c r="AE2" t="n">
-        <v>228932.9614849551</v>
+        <v>306734.4229348443</v>
       </c>
       <c r="AF2" t="n">
         <v>1.580306169624812e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.13657407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>207083.9209503265</v>
+        <v>277460.1201144999</v>
       </c>
     </row>
     <row r="3">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.4088784974185</v>
+        <v>196.2028140418058</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.7453778457374</v>
+        <v>268.4533460291311</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.5409066970133</v>
+        <v>242.8325354608269</v>
       </c>
       <c r="AD3" t="n">
-        <v>139408.8784974185</v>
+        <v>196202.8140418058</v>
       </c>
       <c r="AE3" t="n">
-        <v>190745.3778457374</v>
+        <v>268453.3460291311</v>
       </c>
       <c r="AF3" t="n">
         <v>1.841550264262944e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.27314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>172540.9066970133</v>
+        <v>242832.5354608269</v>
       </c>
     </row>
     <row r="4">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.8684175150302</v>
+        <v>183.7296728671219</v>
       </c>
       <c r="AB4" t="n">
-        <v>173.58696588355</v>
+        <v>251.3870439977851</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.0200694905091</v>
+        <v>227.3950173426418</v>
       </c>
       <c r="AD4" t="n">
-        <v>126868.4175150302</v>
+        <v>183729.6728671219</v>
       </c>
       <c r="AE4" t="n">
-        <v>173586.96588355</v>
+        <v>251387.0439977851</v>
       </c>
       <c r="AF4" t="n">
         <v>1.93122625445865e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.75231481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>157020.0694905091</v>
+        <v>227395.0173426418</v>
       </c>
     </row>
     <row r="5">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.8181194802156</v>
+        <v>182.6793748323073</v>
       </c>
       <c r="AB5" t="n">
-        <v>172.1499017764383</v>
+        <v>249.9499798906733</v>
       </c>
       <c r="AC5" t="n">
-        <v>155.7201567648475</v>
+        <v>226.0951046169802</v>
       </c>
       <c r="AD5" t="n">
-        <v>125818.1194802156</v>
+        <v>182679.3748323073</v>
       </c>
       <c r="AE5" t="n">
-        <v>172149.9017764383</v>
+        <v>249949.9798906733</v>
       </c>
       <c r="AF5" t="n">
         <v>1.963222647760477e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.5787037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>155720.1567648475</v>
+        <v>226095.1046169802</v>
       </c>
     </row>
   </sheetData>
@@ -6872,28 +6872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.9567942620095</v>
+        <v>176.1798558289712</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.8126191983311</v>
+        <v>241.0570512517718</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.8424323836705</v>
+        <v>218.0509046060689</v>
       </c>
       <c r="AD2" t="n">
-        <v>129956.7942620095</v>
+        <v>176179.8558289712</v>
       </c>
       <c r="AE2" t="n">
-        <v>177812.6191983311</v>
+        <v>241057.0512517718</v>
       </c>
       <c r="AF2" t="n">
         <v>2.455663730681338e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.18055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>160842.4323836705</v>
+        <v>218050.9046060689</v>
       </c>
     </row>
     <row r="3">
@@ -6978,28 +6978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.8848692887308</v>
+        <v>174.3581630170123</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.6635229910427</v>
+        <v>238.5645307790362</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.1391446565108</v>
+        <v>215.7962667889759</v>
       </c>
       <c r="AD3" t="n">
-        <v>118884.8692887308</v>
+        <v>174358.1630170124</v>
       </c>
       <c r="AE3" t="n">
-        <v>162663.5229910427</v>
+        <v>238564.5307790362</v>
       </c>
       <c r="AF3" t="n">
         <v>2.559276832848162e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.72916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>147139.1446565108</v>
+        <v>215796.2667889759</v>
       </c>
     </row>
   </sheetData>
@@ -7275,28 +7275,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.4625657074595</v>
+        <v>304.066675490372</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.856073224084</v>
+        <v>416.0374398809045</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.2838444813993</v>
+        <v>376.3314105308844</v>
       </c>
       <c r="AD2" t="n">
-        <v>226462.5657074595</v>
+        <v>304066.675490372</v>
       </c>
       <c r="AE2" t="n">
-        <v>309856.073224084</v>
+        <v>416037.4398809045</v>
       </c>
       <c r="AF2" t="n">
         <v>1.024098738358662e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.36574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>280283.8444813993</v>
+        <v>376331.4105308844</v>
       </c>
     </row>
     <row r="3">
@@ -7381,28 +7381,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.2105260467931</v>
+        <v>234.1388615197988</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.4165744280133</v>
+        <v>320.3591198087915</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.7122557458361</v>
+        <v>289.7844950411841</v>
       </c>
       <c r="AD3" t="n">
-        <v>166210.5260467932</v>
+        <v>234138.8615197988</v>
       </c>
       <c r="AE3" t="n">
-        <v>227416.5744280134</v>
+        <v>320359.1198087916</v>
       </c>
       <c r="AF3" t="n">
         <v>1.3104867168961e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.78935185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>205712.2557458361</v>
+        <v>289784.4950411841</v>
       </c>
     </row>
     <row r="4">
@@ -7487,28 +7487,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.0867961438926</v>
+        <v>209.3403683368524</v>
       </c>
       <c r="AB4" t="n">
-        <v>206.7236199630013</v>
+        <v>286.428727403595</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.9942078122143</v>
+        <v>259.0923716655239</v>
       </c>
       <c r="AD4" t="n">
-        <v>151086.7961438926</v>
+        <v>209340.3683368524</v>
       </c>
       <c r="AE4" t="n">
-        <v>206723.6199630013</v>
+        <v>286428.727403595</v>
       </c>
       <c r="AF4" t="n">
         <v>1.416577253260113e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.8287037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>186994.2078122143</v>
+        <v>259092.3716655239</v>
       </c>
     </row>
     <row r="5">
@@ -7593,28 +7593,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.7225380463507</v>
+        <v>206.8746250128253</v>
       </c>
       <c r="AB5" t="n">
-        <v>203.4887377302402</v>
+        <v>283.0549886067447</v>
       </c>
       <c r="AC5" t="n">
-        <v>184.0680581995611</v>
+        <v>256.0406177643717</v>
       </c>
       <c r="AD5" t="n">
-        <v>148722.5380463507</v>
+        <v>206874.6250128253</v>
       </c>
       <c r="AE5" t="n">
-        <v>203488.7377302402</v>
+        <v>283054.9886067447</v>
       </c>
       <c r="AF5" t="n">
         <v>1.467385454720646e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.42361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>184068.0581995611</v>
+        <v>256040.6177643717</v>
       </c>
     </row>
     <row r="6">
@@ -7699,28 +7699,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>146.6205409050204</v>
+        <v>195.13203001023</v>
       </c>
       <c r="AB6" t="n">
-        <v>200.6126925079045</v>
+        <v>266.9882520774722</v>
       </c>
       <c r="AC6" t="n">
-        <v>181.4664986966894</v>
+        <v>241.5072680196416</v>
       </c>
       <c r="AD6" t="n">
-        <v>146620.5409050204</v>
+        <v>195132.03001023</v>
       </c>
       <c r="AE6" t="n">
-        <v>200612.6925079045</v>
+        <v>266988.2520774722</v>
       </c>
       <c r="AF6" t="n">
         <v>1.50844902250123e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>181466.4986966894</v>
+        <v>241507.2680196416</v>
       </c>
     </row>
     <row r="7">
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>135.6107558773212</v>
+        <v>193.8301626515002</v>
       </c>
       <c r="AB7" t="n">
-        <v>185.5486189155788</v>
+        <v>265.2069797229247</v>
       </c>
       <c r="AC7" t="n">
-        <v>167.8401191454504</v>
+        <v>239.8959977985801</v>
       </c>
       <c r="AD7" t="n">
-        <v>135610.7558773212</v>
+        <v>193830.1626515002</v>
       </c>
       <c r="AE7" t="n">
-        <v>185548.6189155788</v>
+        <v>265206.9797229247</v>
       </c>
       <c r="AF7" t="n">
         <v>1.527807975294827e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.97222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>167840.1191454504</v>
+        <v>239895.9977985801</v>
       </c>
     </row>
     <row r="8">
@@ -7911,28 +7911,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>134.10705074602</v>
+        <v>192.3264575201991</v>
       </c>
       <c r="AB8" t="n">
-        <v>183.4911832161452</v>
+        <v>263.149544023491</v>
       </c>
       <c r="AC8" t="n">
-        <v>165.9790422215409</v>
+        <v>238.0349208746706</v>
       </c>
       <c r="AD8" t="n">
-        <v>134107.05074602</v>
+        <v>192326.4575201991</v>
       </c>
       <c r="AE8" t="n">
-        <v>183491.1832161452</v>
+        <v>263149.544023491</v>
       </c>
       <c r="AF8" t="n">
         <v>1.55071438017102e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.81018518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>165979.0422215409</v>
+        <v>238034.9208746706</v>
       </c>
     </row>
     <row r="9">
@@ -8017,28 +8017,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>133.9894772134839</v>
+        <v>192.2088839876629</v>
       </c>
       <c r="AB9" t="n">
-        <v>183.330313921951</v>
+        <v>262.9886747292969</v>
       </c>
       <c r="AC9" t="n">
-        <v>165.8335260670031</v>
+        <v>237.8894047201329</v>
       </c>
       <c r="AD9" t="n">
-        <v>133989.4772134839</v>
+        <v>192208.8839876629</v>
       </c>
       <c r="AE9" t="n">
-        <v>183330.313921951</v>
+        <v>262988.6747292969</v>
       </c>
       <c r="AF9" t="n">
         <v>1.550584065604721e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.81018518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>165833.5260670031</v>
+        <v>237889.4047201329</v>
       </c>
     </row>
   </sheetData>
@@ -8314,28 +8314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.1655851771997</v>
+        <v>172.2685299371891</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.3111226201851</v>
+        <v>235.7054026111184</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.0112540754325</v>
+        <v>213.2100098005916</v>
       </c>
       <c r="AD2" t="n">
-        <v>117165.5851771997</v>
+        <v>172268.5299371891</v>
       </c>
       <c r="AE2" t="n">
-        <v>160311.1226201851</v>
+        <v>235705.4026111184</v>
       </c>
       <c r="AF2" t="n">
         <v>2.749474004707177e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.92592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>145011.2540754325</v>
+        <v>213210.0098005916</v>
       </c>
     </row>
     <row r="3">
@@ -8420,28 +8420,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.3716387138172</v>
+        <v>172.4745834738067</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.5930541594255</v>
+        <v>235.9873341503588</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.2662784642613</v>
+        <v>213.4650341894204</v>
       </c>
       <c r="AD3" t="n">
-        <v>117371.6387138172</v>
+        <v>172474.5834738067</v>
       </c>
       <c r="AE3" t="n">
-        <v>160593.0541594255</v>
+        <v>235987.3341503588</v>
       </c>
       <c r="AF3" t="n">
         <v>2.744231077650661e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.94907407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>145266.2784642613</v>
+        <v>213465.0341894204</v>
       </c>
     </row>
   </sheetData>
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.8388913915674</v>
+        <v>255.8906780690133</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.3777021857409</v>
+        <v>350.1209148338314</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.7184969245917</v>
+        <v>316.7058661199853</v>
       </c>
       <c r="AD2" t="n">
-        <v>188838.8913915674</v>
+        <v>255890.6780690133</v>
       </c>
       <c r="AE2" t="n">
-        <v>258377.7021857409</v>
+        <v>350120.9148338314</v>
       </c>
       <c r="AF2" t="n">
         <v>1.293423373822093e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.43287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>233718.4969245917</v>
+        <v>316705.8661199853</v>
       </c>
     </row>
     <row r="3">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.5927679546947</v>
+        <v>213.6435436022835</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.5746923320128</v>
+        <v>292.3165216444492</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.4321252042512</v>
+        <v>264.418243087604</v>
       </c>
       <c r="AD3" t="n">
-        <v>146592.7679546947</v>
+        <v>213643.5436022835</v>
       </c>
       <c r="AE3" t="n">
-        <v>200574.6923320128</v>
+        <v>292316.5216444492</v>
       </c>
       <c r="AF3" t="n">
         <v>1.570817165109322e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.88657407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>181432.1252042512</v>
+        <v>264418.2430876039</v>
       </c>
     </row>
     <row r="4">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.826060078607</v>
+        <v>190.735124607648</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.4209164405288</v>
+        <v>260.9722121278865</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.7702184504789</v>
+        <v>236.0653904792773</v>
       </c>
       <c r="AD4" t="n">
-        <v>142826.060078607</v>
+        <v>190735.124607648</v>
       </c>
       <c r="AE4" t="n">
-        <v>195420.9164405288</v>
+        <v>260972.2121278865</v>
       </c>
       <c r="AF4" t="n">
         <v>1.669912882324825e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.18055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>176770.2184504789</v>
+        <v>236065.3904792773</v>
       </c>
     </row>
     <row r="5">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>131.197749547259</v>
+        <v>188.6942468300358</v>
       </c>
       <c r="AB5" t="n">
-        <v>179.5105489666919</v>
+        <v>258.1797931153858</v>
       </c>
       <c r="AC5" t="n">
-        <v>162.3783141179989</v>
+        <v>233.5394760181441</v>
       </c>
       <c r="AD5" t="n">
-        <v>131197.749547259</v>
+        <v>188694.2468300358</v>
       </c>
       <c r="AE5" t="n">
-        <v>179510.5489666919</v>
+        <v>258179.7931153858</v>
       </c>
       <c r="AF5" t="n">
         <v>1.717669854476875e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.86805555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>162378.3141179989</v>
+        <v>233539.4760181441</v>
       </c>
     </row>
     <row r="6">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.5775845106207</v>
+        <v>187.0740817933974</v>
       </c>
       <c r="AB6" t="n">
-        <v>177.2937676869276</v>
+        <v>255.9630118356214</v>
       </c>
       <c r="AC6" t="n">
-        <v>160.3730993323025</v>
+        <v>231.5342612324477</v>
       </c>
       <c r="AD6" t="n">
-        <v>129577.5845106207</v>
+        <v>187074.0817933974</v>
       </c>
       <c r="AE6" t="n">
-        <v>177293.7676869276</v>
+        <v>255963.0118356214</v>
       </c>
       <c r="AF6" t="n">
         <v>1.749647664884093e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.6712962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>160373.0993323025</v>
+        <v>231534.2612324477</v>
       </c>
     </row>
     <row r="7">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>129.6322147754717</v>
+        <v>187.1287120582483</v>
       </c>
       <c r="AB7" t="n">
-        <v>177.3685152254138</v>
+        <v>256.0377593741077</v>
       </c>
       <c r="AC7" t="n">
-        <v>160.4407130706245</v>
+        <v>231.6018749707697</v>
       </c>
       <c r="AD7" t="n">
-        <v>129632.2147754716</v>
+        <v>187128.7120582483</v>
       </c>
       <c r="AE7" t="n">
-        <v>177368.5152254138</v>
+        <v>256037.7593741077</v>
       </c>
       <c r="AF7" t="n">
         <v>1.74885709338563e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.68287037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>160440.7130706245</v>
+        <v>231601.8749707697</v>
       </c>
     </row>
   </sheetData>
@@ -9544,28 +9544,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.875305225555</v>
+        <v>284.9825434665119</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.4241634206962</v>
+        <v>389.9256885133749</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.2791204557291</v>
+        <v>352.7117280657986</v>
       </c>
       <c r="AD2" t="n">
-        <v>207875.305225555</v>
+        <v>284982.5434665119</v>
       </c>
       <c r="AE2" t="n">
-        <v>284424.1634206962</v>
+        <v>389925.6885133749</v>
       </c>
       <c r="AF2" t="n">
         <v>1.139432217401996e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.47453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>257279.120455729</v>
+        <v>352711.7280657986</v>
       </c>
     </row>
     <row r="3">
@@ -9650,28 +9650,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.4147389138247</v>
+        <v>219.2539617066992</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.8547668974932</v>
+        <v>299.9929432090849</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.776697916472</v>
+        <v>271.3620377520387</v>
       </c>
       <c r="AD3" t="n">
-        <v>161414.7389138247</v>
+        <v>219253.9617066992</v>
       </c>
       <c r="AE3" t="n">
-        <v>220854.7668974932</v>
+        <v>299992.9432090849</v>
       </c>
       <c r="AF3" t="n">
         <v>1.426730748273681e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.34953703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>199776.697916472</v>
+        <v>271362.0377520387</v>
       </c>
     </row>
     <row r="4">
@@ -9756,28 +9756,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.0828896338001</v>
+        <v>204.9894322343791</v>
       </c>
       <c r="AB4" t="n">
-        <v>201.245298436007</v>
+        <v>280.4755846784402</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.0387296028819</v>
+        <v>253.7073885267677</v>
       </c>
       <c r="AD4" t="n">
-        <v>147082.8896338001</v>
+        <v>204989.4322343791</v>
       </c>
       <c r="AE4" t="n">
-        <v>201245.298436007</v>
+        <v>280475.5846784402</v>
       </c>
       <c r="AF4" t="n">
         <v>1.531720733528354e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.50462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>182038.7296028819</v>
+        <v>253707.3885267677</v>
       </c>
     </row>
     <row r="5">
@@ -9862,28 +9862,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>144.6182711896093</v>
+        <v>192.8405689678347</v>
       </c>
       <c r="AB5" t="n">
-        <v>197.8730987493748</v>
+        <v>263.8529739871421</v>
       </c>
       <c r="AC5" t="n">
-        <v>178.9883679214289</v>
+        <v>238.6712164698612</v>
       </c>
       <c r="AD5" t="n">
-        <v>144618.2711896093</v>
+        <v>192840.5689678347</v>
       </c>
       <c r="AE5" t="n">
-        <v>197873.0987493748</v>
+        <v>263852.9739871421</v>
       </c>
       <c r="AF5" t="n">
         <v>1.588388522204397e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.09953703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>178988.3679214289</v>
+        <v>238671.2164698612</v>
       </c>
     </row>
     <row r="6">
@@ -9968,28 +9968,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>133.2101291305853</v>
+        <v>191.0825063123834</v>
       </c>
       <c r="AB6" t="n">
-        <v>182.263975492519</v>
+        <v>261.4475151017044</v>
       </c>
       <c r="AC6" t="n">
-        <v>164.8689574806604</v>
+        <v>236.4953312043662</v>
       </c>
       <c r="AD6" t="n">
-        <v>133210.1291305853</v>
+        <v>191082.5063123834</v>
       </c>
       <c r="AE6" t="n">
-        <v>182263.975492519</v>
+        <v>261447.5151017044</v>
       </c>
       <c r="AF6" t="n">
         <v>1.618450928774273e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.8912037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>164868.9574806603</v>
+        <v>236495.3312043662</v>
       </c>
     </row>
     <row r="7">
@@ -10074,28 +10074,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>131.8846216537052</v>
+        <v>189.7569988355033</v>
       </c>
       <c r="AB7" t="n">
-        <v>180.4503576853897</v>
+        <v>259.6338972945751</v>
       </c>
       <c r="AC7" t="n">
-        <v>163.2284288116144</v>
+        <v>234.8548025353202</v>
       </c>
       <c r="AD7" t="n">
-        <v>131884.6216537052</v>
+        <v>189756.9988355033</v>
       </c>
       <c r="AE7" t="n">
-        <v>180450.3576853897</v>
+        <v>259633.8972945752</v>
       </c>
       <c r="AF7" t="n">
         <v>1.641081494206306e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.74074074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>163228.4288116143</v>
+        <v>234854.8025353202</v>
       </c>
     </row>
     <row r="8">
@@ -10180,28 +10180,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>131.9795362512587</v>
+        <v>189.8519134330568</v>
       </c>
       <c r="AB8" t="n">
-        <v>180.5802240250989</v>
+        <v>259.7637636342844</v>
       </c>
       <c r="AC8" t="n">
-        <v>163.3459008901303</v>
+        <v>234.9722746138361</v>
       </c>
       <c r="AD8" t="n">
-        <v>131979.5362512587</v>
+        <v>189851.9134330568</v>
       </c>
       <c r="AE8" t="n">
-        <v>180580.224025099</v>
+        <v>259763.7636342844</v>
       </c>
       <c r="AF8" t="n">
         <v>1.637396032002705e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.76388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>163345.9008901303</v>
+        <v>234972.2746138361</v>
       </c>
     </row>
   </sheetData>
@@ -10477,28 +10477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.7057072965181</v>
+        <v>334.4697368609766</v>
       </c>
       <c r="AB2" t="n">
-        <v>337.5536326105976</v>
+        <v>457.6362497365701</v>
       </c>
       <c r="AC2" t="n">
-        <v>305.3379876738416</v>
+        <v>413.9600883582216</v>
       </c>
       <c r="AD2" t="n">
-        <v>246705.7072965181</v>
+        <v>334469.7368609766</v>
       </c>
       <c r="AE2" t="n">
-        <v>337553.6326105976</v>
+        <v>457636.2497365701</v>
       </c>
       <c r="AF2" t="n">
         <v>9.196521824443617e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.41898148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>305337.9876738416</v>
+        <v>413960.0883582216</v>
       </c>
     </row>
     <row r="3">
@@ -10583,28 +10583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.8454777489002</v>
+        <v>239.389333220603</v>
       </c>
       <c r="AB3" t="n">
-        <v>247.4407609953278</v>
+        <v>327.5430468242917</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.8253620512948</v>
+        <v>296.2827981450321</v>
       </c>
       <c r="AD3" t="n">
-        <v>180845.4777489002</v>
+        <v>239389.333220603</v>
       </c>
       <c r="AE3" t="n">
-        <v>247440.7609953278</v>
+        <v>327543.0468242917</v>
       </c>
       <c r="AF3" t="n">
         <v>1.214573834774101e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.19444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>223825.3620512948</v>
+        <v>296282.7981450321</v>
       </c>
     </row>
     <row r="4">
@@ -10689,28 +10689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.2021282296833</v>
+        <v>223.7118182826052</v>
       </c>
       <c r="AB4" t="n">
-        <v>226.0368400472724</v>
+        <v>306.0923792429886</v>
       </c>
       <c r="AC4" t="n">
-        <v>204.4642012779233</v>
+        <v>276.8793521714808</v>
       </c>
       <c r="AD4" t="n">
-        <v>165202.1282296833</v>
+        <v>223711.8182826052</v>
       </c>
       <c r="AE4" t="n">
-        <v>226036.8400472724</v>
+        <v>306092.3792429886</v>
       </c>
       <c r="AF4" t="n">
         <v>1.315179178973519e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>204464.2012779232</v>
+        <v>276879.3521714808</v>
       </c>
     </row>
     <row r="5">
@@ -10795,28 +10795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>152.2432889857317</v>
+        <v>210.8202988463581</v>
       </c>
       <c r="AB5" t="n">
-        <v>208.3059844900681</v>
+        <v>288.4536336166258</v>
       </c>
       <c r="AC5" t="n">
-        <v>188.4255536896809</v>
+        <v>260.9240236715574</v>
       </c>
       <c r="AD5" t="n">
-        <v>152243.2889857317</v>
+        <v>210820.2988463581</v>
       </c>
       <c r="AE5" t="n">
-        <v>208305.9844900681</v>
+        <v>288453.6336166258</v>
       </c>
       <c r="AF5" t="n">
         <v>1.374708968440631e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.65509259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>188425.5536896809</v>
+        <v>260924.0236715574</v>
       </c>
     </row>
     <row r="6">
@@ -10901,28 +10901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>150.6277234724064</v>
+        <v>209.1032481065475</v>
       </c>
       <c r="AB6" t="n">
-        <v>206.0954964810173</v>
+        <v>286.1042890434858</v>
       </c>
       <c r="AC6" t="n">
-        <v>186.4260315537738</v>
+        <v>258.7988972471513</v>
       </c>
       <c r="AD6" t="n">
-        <v>150627.7234724064</v>
+        <v>209103.2481065475</v>
       </c>
       <c r="AE6" t="n">
-        <v>206095.4964810173</v>
+        <v>286104.2890434858</v>
       </c>
       <c r="AF6" t="n">
         <v>1.401981918498819e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.42361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>186426.0315537738</v>
+        <v>258798.8972471513</v>
       </c>
     </row>
     <row r="7">
@@ -11007,28 +11007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>149.0413813657653</v>
+        <v>197.822401860697</v>
       </c>
       <c r="AB7" t="n">
-        <v>203.9249932262377</v>
+        <v>270.6693375341087</v>
       </c>
       <c r="AC7" t="n">
-        <v>184.4626780833091</v>
+        <v>244.8370358467338</v>
       </c>
       <c r="AD7" t="n">
-        <v>149041.3813657654</v>
+        <v>197822.401860697</v>
       </c>
       <c r="AE7" t="n">
-        <v>203924.9932262377</v>
+        <v>270669.3375341087</v>
       </c>
       <c r="AF7" t="n">
         <v>1.430791567773484e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.2037037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>184462.6780833091</v>
+        <v>244837.0358467338</v>
       </c>
     </row>
     <row r="8">
@@ -11113,28 +11113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>147.6427183329852</v>
+        <v>196.4237388279168</v>
       </c>
       <c r="AB8" t="n">
-        <v>202.0112807601307</v>
+        <v>268.7556250680017</v>
       </c>
       <c r="AC8" t="n">
-        <v>182.7316076490545</v>
+        <v>243.1059654124791</v>
       </c>
       <c r="AD8" t="n">
-        <v>147642.7183329852</v>
+        <v>196423.7388279169</v>
       </c>
       <c r="AE8" t="n">
-        <v>202011.2807601307</v>
+        <v>268755.6250680017</v>
       </c>
       <c r="AF8" t="n">
         <v>1.451253202385668e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>182731.6076490545</v>
+        <v>243105.9654124791</v>
       </c>
     </row>
     <row r="9">
@@ -11219,28 +11219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>136.847604214075</v>
+        <v>195.3904486559205</v>
       </c>
       <c r="AB9" t="n">
-        <v>187.240929375822</v>
+        <v>267.341831869132</v>
       </c>
       <c r="AC9" t="n">
-        <v>169.3709178705412</v>
+        <v>241.8271026522378</v>
       </c>
       <c r="AD9" t="n">
-        <v>136847.604214075</v>
+        <v>195390.4486559205</v>
       </c>
       <c r="AE9" t="n">
-        <v>187240.929375822</v>
+        <v>267341.8318691319</v>
       </c>
       <c r="AF9" t="n">
         <v>1.46351910784331e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.94907407407408</v>
       </c>
       <c r="AH9" t="n">
-        <v>169370.9178705412</v>
+        <v>241827.1026522378</v>
       </c>
     </row>
     <row r="10">
@@ -11325,28 +11325,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>136.1359813269769</v>
+        <v>194.6788257688224</v>
       </c>
       <c r="AB10" t="n">
-        <v>186.2672555471088</v>
+        <v>266.3681580404187</v>
       </c>
       <c r="AC10" t="n">
-        <v>168.4901701054803</v>
+        <v>240.9463548871769</v>
       </c>
       <c r="AD10" t="n">
-        <v>136135.9813269768</v>
+        <v>194678.8257688224</v>
       </c>
       <c r="AE10" t="n">
-        <v>186267.2555471088</v>
+        <v>266368.1580404187</v>
       </c>
       <c r="AF10" t="n">
         <v>1.469527463338363e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.90277777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>168490.1701054803</v>
+        <v>240946.3548871769</v>
       </c>
     </row>
     <row r="11">
@@ -11431,28 +11431,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>136.2468711661075</v>
+        <v>194.7897156079531</v>
       </c>
       <c r="AB11" t="n">
-        <v>186.4189799171218</v>
+        <v>266.5198824104316</v>
       </c>
       <c r="AC11" t="n">
-        <v>168.6274141145657</v>
+        <v>241.0835988962623</v>
       </c>
       <c r="AD11" t="n">
-        <v>136246.8711661075</v>
+        <v>194789.7156079531</v>
       </c>
       <c r="AE11" t="n">
-        <v>186418.9799171218</v>
+        <v>266519.8824104316</v>
       </c>
       <c r="AF11" t="n">
         <v>1.469568995749619e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.90277777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>168627.4141145657</v>
+        <v>241083.5988962623</v>
       </c>
     </row>
   </sheetData>
@@ -11728,28 +11728,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.1260064163037</v>
+        <v>237.7642003407453</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.1421515252634</v>
+        <v>325.3194683222689</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.7959532043334</v>
+        <v>294.2714348544296</v>
       </c>
       <c r="AD2" t="n">
-        <v>171126.0064163037</v>
+        <v>237764.2003407453</v>
       </c>
       <c r="AE2" t="n">
-        <v>234142.1515252634</v>
+        <v>325319.4683222689</v>
       </c>
       <c r="AF2" t="n">
         <v>1.473915708687235e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.55324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>211795.9532043334</v>
+        <v>294271.4348544296</v>
       </c>
     </row>
     <row r="3">
@@ -11834,28 +11834,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.7175059857011</v>
+        <v>198.7344726944515</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.9041438246607</v>
+        <v>271.9172730865762</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.3982044842651</v>
+        <v>245.9658701815628</v>
       </c>
       <c r="AD3" t="n">
-        <v>141717.5059857011</v>
+        <v>198734.4726944515</v>
       </c>
       <c r="AE3" t="n">
-        <v>193904.1438246607</v>
+        <v>271917.2730865763</v>
       </c>
       <c r="AF3" t="n">
         <v>1.745568654844037e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.44675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>175398.2044842651</v>
+        <v>245965.8701815628</v>
       </c>
     </row>
     <row r="4">
@@ -11940,28 +11940,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.0023781270628</v>
+        <v>186.0866646435176</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.5067449366293</v>
+        <v>254.6119841293863</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.6611889286991</v>
+        <v>230.3121737143159</v>
       </c>
       <c r="AD4" t="n">
-        <v>129002.3781270628</v>
+        <v>186086.6646435176</v>
       </c>
       <c r="AE4" t="n">
-        <v>176506.7449366293</v>
+        <v>254611.9841293863</v>
       </c>
       <c r="AF4" t="n">
         <v>1.834088855659681e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.8912037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>159661.1889286991</v>
+        <v>230312.1737143159</v>
       </c>
     </row>
     <row r="5">
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.2043191447229</v>
+        <v>184.2886056611777</v>
       </c>
       <c r="AB5" t="n">
-        <v>174.0465613122293</v>
+        <v>252.1518005049863</v>
       </c>
       <c r="AC5" t="n">
-        <v>157.4358017765216</v>
+        <v>228.0867865621384</v>
       </c>
       <c r="AD5" t="n">
-        <v>127204.3191447229</v>
+        <v>184288.6056611777</v>
       </c>
       <c r="AE5" t="n">
-        <v>174046.5613122293</v>
+        <v>252151.8005049863</v>
       </c>
       <c r="AF5" t="n">
         <v>1.877477388482947e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.63657407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>157435.8017765216</v>
+        <v>228086.7865621384</v>
       </c>
     </row>
     <row r="6">
@@ -12152,28 +12152,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>127.2135511762018</v>
+        <v>184.2978376926566</v>
       </c>
       <c r="AB6" t="n">
-        <v>174.0591929849872</v>
+        <v>252.1644321777442</v>
       </c>
       <c r="AC6" t="n">
-        <v>157.4472279001602</v>
+        <v>228.098212685777</v>
       </c>
       <c r="AD6" t="n">
-        <v>127213.5511762018</v>
+        <v>184297.8376926566</v>
       </c>
       <c r="AE6" t="n">
-        <v>174059.1929849873</v>
+        <v>252164.4321777442</v>
       </c>
       <c r="AF6" t="n">
         <v>1.883345368260159e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.60185185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>157447.2279001602</v>
+        <v>228098.212685777</v>
       </c>
     </row>
   </sheetData>
@@ -12449,28 +12449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.4992629979971</v>
+        <v>206.8375434021728</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.9197311926546</v>
+        <v>283.0042519111248</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.2670410578441</v>
+        <v>255.9947233077725</v>
       </c>
       <c r="AD2" t="n">
-        <v>150499.2629979971</v>
+        <v>206837.5434021728</v>
       </c>
       <c r="AE2" t="n">
-        <v>205919.7311926546</v>
+        <v>283004.2519111248</v>
       </c>
       <c r="AF2" t="n">
         <v>1.837727734413478e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.36111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>186267.0410578441</v>
+        <v>255994.7233077725</v>
       </c>
     </row>
     <row r="3">
@@ -12555,28 +12555,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.7234131181291</v>
+        <v>181.0948479112284</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.6520762367961</v>
+        <v>247.78196025286</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.365281592497</v>
+        <v>224.1339977305644</v>
       </c>
       <c r="AD3" t="n">
-        <v>124723.4131181291</v>
+        <v>181094.8479112284</v>
       </c>
       <c r="AE3" t="n">
-        <v>170652.0762367961</v>
+        <v>247781.96025286</v>
       </c>
       <c r="AF3" t="n">
         <v>2.095808330657502e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>154365.281592497</v>
+        <v>224133.9977305644</v>
       </c>
     </row>
     <row r="4">
@@ -12661,28 +12661,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.3715590545558</v>
+        <v>179.7429938476551</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.8024098674239</v>
+        <v>245.9322938834879</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.692144785394</v>
+        <v>222.4608609234615</v>
       </c>
       <c r="AD4" t="n">
-        <v>123371.5590545558</v>
+        <v>179742.9938476551</v>
       </c>
       <c r="AE4" t="n">
-        <v>168802.4098674239</v>
+        <v>245932.2938834879</v>
       </c>
       <c r="AF4" t="n">
         <v>2.14278916461752e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.60185185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>152692.144785394</v>
+        <v>222460.8609234615</v>
       </c>
     </row>
   </sheetData>
@@ -22691,28 +22691,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.6031027174156</v>
+        <v>189.4389072233286</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.8016592907909</v>
+        <v>259.1986703175866</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.3553254918693</v>
+        <v>234.4611130101703</v>
       </c>
       <c r="AD2" t="n">
-        <v>133603.1027174156</v>
+        <v>189438.9072233286</v>
       </c>
       <c r="AE2" t="n">
-        <v>182801.6592907909</v>
+        <v>259198.6703175865</v>
       </c>
       <c r="AF2" t="n">
         <v>2.211266017569651e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.53935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>165355.3254918693</v>
+        <v>234461.1130101703</v>
       </c>
     </row>
     <row r="3">
@@ -22797,28 +22797,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.5010113965462</v>
+        <v>176.3026504836785</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.8747999221123</v>
+        <v>241.2250643156601</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.1393804208265</v>
+        <v>218.2028827389476</v>
       </c>
       <c r="AD3" t="n">
-        <v>120501.0113965462</v>
+        <v>176302.6504836785</v>
       </c>
       <c r="AE3" t="n">
-        <v>164874.7999221123</v>
+        <v>241225.0643156601</v>
       </c>
       <c r="AF3" t="n">
         <v>2.391567483570581e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.6712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>149139.3804208265</v>
+        <v>218202.8827389476</v>
       </c>
     </row>
   </sheetData>
@@ -23094,28 +23094,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.4854831119167</v>
+        <v>179.0902905985644</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.3265299055654</v>
+        <v>245.0392365028473</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.0708049462117</v>
+        <v>221.6530356858151</v>
       </c>
       <c r="AD2" t="n">
-        <v>124485.4831119167</v>
+        <v>179090.2905985644</v>
       </c>
       <c r="AE2" t="n">
-        <v>170326.5299055654</v>
+        <v>245039.2365028473</v>
       </c>
       <c r="AF2" t="n">
         <v>2.995492167496924e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.26157407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>154070.8049462117</v>
+        <v>221653.0356858151</v>
       </c>
     </row>
   </sheetData>
@@ -23391,28 +23391,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.919852413378</v>
+        <v>269.8491685323372</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.9614530950732</v>
+        <v>369.2195372910543</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.7693424839828</v>
+        <v>333.9817428548705</v>
       </c>
       <c r="AD2" t="n">
-        <v>192919.852413378</v>
+        <v>269849.1685323372</v>
       </c>
       <c r="AE2" t="n">
-        <v>263961.4530950732</v>
+        <v>369219.5372910543</v>
       </c>
       <c r="AF2" t="n">
         <v>1.218360723985857e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.87268518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>238769.3424839828</v>
+        <v>333981.7428548705</v>
       </c>
     </row>
     <row r="3">
@@ -23497,28 +23497,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.8292951999849</v>
+        <v>216.4845865455829</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.3172487464927</v>
+        <v>296.2037619374382</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.5767955328639</v>
+        <v>267.9344906228073</v>
       </c>
       <c r="AD3" t="n">
-        <v>158829.2951999849</v>
+        <v>216484.5865455829</v>
       </c>
       <c r="AE3" t="n">
-        <v>217317.2487464927</v>
+        <v>296203.7619374382</v>
       </c>
       <c r="AF3" t="n">
         <v>1.496761301213122e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.10648148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>196576.7955328639</v>
+        <v>267934.4906228073</v>
       </c>
     </row>
     <row r="4">
@@ -23603,28 +23603,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.9619980903123</v>
+        <v>202.5831240171295</v>
       </c>
       <c r="AB4" t="n">
-        <v>198.3434010590771</v>
+        <v>277.1831676167748</v>
       </c>
       <c r="AC4" t="n">
-        <v>179.4137852387668</v>
+        <v>250.7291951285302</v>
       </c>
       <c r="AD4" t="n">
-        <v>144961.9980903123</v>
+        <v>202583.1240171295</v>
       </c>
       <c r="AE4" t="n">
-        <v>198343.4010590771</v>
+        <v>277183.1676167748</v>
       </c>
       <c r="AF4" t="n">
         <v>1.598074745988442e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.34259259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>179413.7852387668</v>
+        <v>250729.1951285302</v>
       </c>
     </row>
     <row r="5">
@@ -23709,28 +23709,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>142.7591549760069</v>
+        <v>190.8281765481686</v>
       </c>
       <c r="AB5" t="n">
-        <v>195.3293739275066</v>
+        <v>261.0995298980686</v>
       </c>
       <c r="AC5" t="n">
-        <v>176.6874126264188</v>
+        <v>236.180557220165</v>
       </c>
       <c r="AD5" t="n">
-        <v>142759.1549760069</v>
+        <v>190828.1765481686</v>
       </c>
       <c r="AE5" t="n">
-        <v>195329.3739275066</v>
+        <v>261099.5298980686</v>
       </c>
       <c r="AF5" t="n">
         <v>1.646523555591971e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.00694444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>176687.4126264188</v>
+        <v>236180.557220165</v>
       </c>
     </row>
     <row r="6">
@@ -23815,28 +23815,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>131.5189713596144</v>
+        <v>189.207417094136</v>
       </c>
       <c r="AB6" t="n">
-        <v>179.9500588216625</v>
+        <v>258.8819353102015</v>
       </c>
       <c r="AC6" t="n">
-        <v>162.7758777692672</v>
+        <v>234.1746067473497</v>
       </c>
       <c r="AD6" t="n">
-        <v>131518.9713596144</v>
+        <v>189207.417094136</v>
       </c>
       <c r="AE6" t="n">
-        <v>179950.0588216625</v>
+        <v>258881.9353102015</v>
       </c>
       <c r="AF6" t="n">
         <v>1.67544564716848e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.82175925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>162775.8777692672</v>
+        <v>234174.6067473497</v>
       </c>
     </row>
     <row r="7">
@@ -23921,28 +23921,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>130.4453418946292</v>
+        <v>188.1337876291508</v>
       </c>
       <c r="AB7" t="n">
-        <v>178.4810716224814</v>
+        <v>257.4129481110205</v>
       </c>
       <c r="AC7" t="n">
-        <v>161.447088646639</v>
+        <v>232.8458176247214</v>
       </c>
       <c r="AD7" t="n">
-        <v>130445.3418946292</v>
+        <v>188133.7876291508</v>
       </c>
       <c r="AE7" t="n">
-        <v>178481.0716224814</v>
+        <v>257412.9481110204</v>
       </c>
       <c r="AF7" t="n">
         <v>1.698464312364728e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.6712962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>161447.088646639</v>
+        <v>232845.8176247214</v>
       </c>
     </row>
   </sheetData>
@@ -24218,28 +24218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.571659916828</v>
+        <v>319.1644536346894</v>
       </c>
       <c r="AB2" t="n">
-        <v>316.8465613186673</v>
+        <v>436.6948860049227</v>
       </c>
       <c r="AC2" t="n">
-        <v>286.6071702034494</v>
+        <v>395.0173389897341</v>
       </c>
       <c r="AD2" t="n">
-        <v>231571.659916828</v>
+        <v>319164.4536346894</v>
       </c>
       <c r="AE2" t="n">
-        <v>316846.5613186673</v>
+        <v>436694.8860049227</v>
       </c>
       <c r="AF2" t="n">
         <v>9.696287208595357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.88657407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>286607.1702034494</v>
+        <v>395017.3389897341</v>
       </c>
     </row>
     <row r="3">
@@ -24324,28 +24324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.6850361755355</v>
+        <v>236.8051723074732</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.8023083538392</v>
+        <v>324.0072838578159</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.7748599776896</v>
+        <v>293.0844834336012</v>
       </c>
       <c r="AD3" t="n">
-        <v>168685.0361755355</v>
+        <v>236805.1723074732</v>
       </c>
       <c r="AE3" t="n">
-        <v>230802.3083538392</v>
+        <v>324007.283857816</v>
       </c>
       <c r="AF3" t="n">
         <v>1.259648565178032e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.99768518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>208774.8599776896</v>
+        <v>293084.4834336012</v>
       </c>
     </row>
     <row r="4">
@@ -24430,28 +24430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>153.1740552971915</v>
+        <v>221.2600260103484</v>
       </c>
       <c r="AB4" t="n">
-        <v>209.5795000199183</v>
+        <v>302.7377288906474</v>
       </c>
       <c r="AC4" t="n">
-        <v>189.5775266847529</v>
+        <v>273.8448649404845</v>
       </c>
       <c r="AD4" t="n">
-        <v>153174.0552971915</v>
+        <v>221260.0260103484</v>
       </c>
       <c r="AE4" t="n">
-        <v>209579.5000199183</v>
+        <v>302737.7288906474</v>
       </c>
       <c r="AF4" t="n">
         <v>1.365217090252935e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.99074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>189577.5266847528</v>
+        <v>273844.8649404845</v>
       </c>
     </row>
     <row r="5">
@@ -24536,28 +24536,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>150.6735649128181</v>
+        <v>209.0915376705768</v>
       </c>
       <c r="AB5" t="n">
-        <v>206.1582187621702</v>
+        <v>286.0882663083627</v>
       </c>
       <c r="AC5" t="n">
-        <v>186.4827677084447</v>
+        <v>258.7844036993803</v>
       </c>
       <c r="AD5" t="n">
-        <v>150673.5649128181</v>
+        <v>209091.5376705768</v>
       </c>
       <c r="AE5" t="n">
-        <v>206158.2187621702</v>
+        <v>286088.2663083627</v>
       </c>
       <c r="AF5" t="n">
         <v>1.414938011994419e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.57407407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>186482.7677084447</v>
+        <v>258784.4036993803</v>
       </c>
     </row>
     <row r="6">
@@ -24642,28 +24642,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>148.7784089350699</v>
+        <v>207.0948964663434</v>
       </c>
       <c r="AB6" t="n">
-        <v>203.5651827450355</v>
+        <v>283.3563737271389</v>
       </c>
       <c r="AC6" t="n">
-        <v>184.1372074094357</v>
+        <v>256.3132391118723</v>
       </c>
       <c r="AD6" t="n">
-        <v>148778.4089350699</v>
+        <v>207094.8964663434</v>
       </c>
       <c r="AE6" t="n">
-        <v>203565.1827450355</v>
+        <v>283356.3737271389</v>
       </c>
       <c r="AF6" t="n">
         <v>1.452631960633951e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.27314814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>184137.2074094357</v>
+        <v>256313.2391118723</v>
       </c>
     </row>
     <row r="7">
@@ -24748,28 +24748,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>147.3607787877064</v>
+        <v>196.0092683635817</v>
       </c>
       <c r="AB7" t="n">
-        <v>201.6255186359855</v>
+        <v>268.1885282935523</v>
       </c>
       <c r="AC7" t="n">
-        <v>182.3826621206171</v>
+        <v>242.5929915582577</v>
       </c>
       <c r="AD7" t="n">
-        <v>147360.7787877064</v>
+        <v>196009.2683635817</v>
       </c>
       <c r="AE7" t="n">
-        <v>201625.5186359855</v>
+        <v>268188.5282935523</v>
       </c>
       <c r="AF7" t="n">
         <v>1.474153167796386e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>182382.6621206171</v>
+        <v>242592.9915582577</v>
       </c>
     </row>
     <row r="8">
@@ -24854,28 +24854,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>136.3706698550164</v>
+        <v>194.7544771939943</v>
       </c>
       <c r="AB8" t="n">
-        <v>186.5883667448995</v>
+        <v>266.4716676578443</v>
       </c>
       <c r="AC8" t="n">
-        <v>168.7806349012363</v>
+        <v>241.039985691992</v>
       </c>
       <c r="AD8" t="n">
-        <v>136370.6698550164</v>
+        <v>194754.4771939944</v>
       </c>
       <c r="AE8" t="n">
-        <v>186588.3667448995</v>
+        <v>266471.6676578443</v>
       </c>
       <c r="AF8" t="n">
         <v>1.492250224969794e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.97222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>168780.6349012363</v>
+        <v>241039.985691992</v>
       </c>
     </row>
     <row r="9">
@@ -24960,28 +24960,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>135.2169939537457</v>
+        <v>193.6008012927236</v>
       </c>
       <c r="AB9" t="n">
-        <v>185.009856480193</v>
+        <v>264.8931573931378</v>
       </c>
       <c r="AC9" t="n">
-        <v>167.3527754407398</v>
+        <v>239.6121262314955</v>
       </c>
       <c r="AD9" t="n">
-        <v>135216.9939537457</v>
+        <v>193600.8012927236</v>
       </c>
       <c r="AE9" t="n">
-        <v>185009.856480193</v>
+        <v>264893.1573931377</v>
       </c>
       <c r="AF9" t="n">
         <v>1.502720766258553e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.90277777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>167352.7754407398</v>
+        <v>239612.1262314955</v>
       </c>
     </row>
     <row r="10">
@@ -25066,28 +25066,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>135.0870041746789</v>
+        <v>193.4708115136568</v>
       </c>
       <c r="AB10" t="n">
-        <v>184.8319987297296</v>
+        <v>264.7152996426743</v>
       </c>
       <c r="AC10" t="n">
-        <v>167.1918921843557</v>
+        <v>239.4512429751113</v>
       </c>
       <c r="AD10" t="n">
-        <v>135087.0041746789</v>
+        <v>193470.8115136568</v>
       </c>
       <c r="AE10" t="n">
-        <v>184831.9987297296</v>
+        <v>264715.2996426743</v>
       </c>
       <c r="AF10" t="n">
         <v>1.503824417907909e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.8912037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>167191.8921843557</v>
+        <v>239451.2429751114</v>
       </c>
     </row>
   </sheetData>
@@ -25363,28 +25363,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.2054523927205</v>
+        <v>185.3161487314382</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.5210883396779</v>
+        <v>253.5577302657171</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.3878476280192</v>
+        <v>229.3585363597403</v>
       </c>
       <c r="AD2" t="n">
-        <v>131205.4523927205</v>
+        <v>185316.1487314382</v>
       </c>
       <c r="AE2" t="n">
-        <v>179521.0883396779</v>
+        <v>253557.7302657171</v>
       </c>
       <c r="AF2" t="n">
         <v>3.294697052605215e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.06018518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>162387.8476280192</v>
+        <v>229358.5363597403</v>
       </c>
     </row>
   </sheetData>
@@ -25660,28 +25660,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.186433491541</v>
+        <v>220.254023096361</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.9646805284005</v>
+        <v>301.3612713220143</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.8305075096189</v>
+        <v>272.599774550331</v>
       </c>
       <c r="AD2" t="n">
-        <v>154186.433491541</v>
+        <v>220254.023096361</v>
       </c>
       <c r="AE2" t="n">
-        <v>210964.6805284005</v>
+        <v>301361.2713220143</v>
       </c>
       <c r="AF2" t="n">
         <v>1.697795876001837e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.75462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>190830.5075096189</v>
+        <v>272599.774550331</v>
       </c>
     </row>
     <row r="3">
@@ -25766,28 +25766,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.7890851081952</v>
+        <v>183.9714700218436</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.1608609534767</v>
+        <v>251.7178815322127</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.2984910660477</v>
+        <v>227.6942802071171</v>
       </c>
       <c r="AD3" t="n">
-        <v>136789.0851081952</v>
+        <v>183971.4700218436</v>
       </c>
       <c r="AE3" t="n">
-        <v>187160.8609534767</v>
+        <v>251717.8815322127</v>
       </c>
       <c r="AF3" t="n">
         <v>1.960070568499585e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.05324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>169298.4910660477</v>
+        <v>227694.2802071171</v>
       </c>
     </row>
     <row r="4">
@@ -25872,28 +25872,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.6946785577983</v>
+        <v>181.3191603021039</v>
       </c>
       <c r="AB4" t="n">
-        <v>170.6127603436722</v>
+        <v>248.0888743620201</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.3297179530326</v>
+        <v>224.411620387903</v>
       </c>
       <c r="AD4" t="n">
-        <v>124694.6785577983</v>
+        <v>181319.1603021039</v>
       </c>
       <c r="AE4" t="n">
-        <v>170612.7603436722</v>
+        <v>248088.8743620201</v>
       </c>
       <c r="AF4" t="n">
         <v>2.041812691712583e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.61342592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>154329.7179530326</v>
+        <v>224411.620387903</v>
       </c>
     </row>
     <row r="5">
@@ -25978,28 +25978,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.74546486019</v>
+        <v>181.3699466044956</v>
       </c>
       <c r="AB5" t="n">
-        <v>170.682248403138</v>
+        <v>248.1583624214858</v>
       </c>
       <c r="AC5" t="n">
-        <v>154.3925741696301</v>
+        <v>224.4744766045005</v>
       </c>
       <c r="AD5" t="n">
-        <v>124745.46486019</v>
+        <v>181369.9466044956</v>
       </c>
       <c r="AE5" t="n">
-        <v>170682.248403138</v>
+        <v>248158.3624214858</v>
       </c>
       <c r="AF5" t="n">
         <v>2.043496938756807e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.60185185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>154392.5741696301</v>
+        <v>224474.4766045005</v>
       </c>
     </row>
   </sheetData>
@@ -26275,28 +26275,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.0271227001246</v>
+        <v>251.3983754555394</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.4798309298882</v>
+        <v>343.9743482116754</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.6242119780627</v>
+        <v>311.1459191894855</v>
       </c>
       <c r="AD2" t="n">
-        <v>175027.1227001245</v>
+        <v>251398.3754555394</v>
       </c>
       <c r="AE2" t="n">
-        <v>239479.8309298882</v>
+        <v>343974.3482116754</v>
       </c>
       <c r="AF2" t="n">
         <v>1.379740243005744e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.98148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>216624.2119780627</v>
+        <v>311145.9191894855</v>
       </c>
     </row>
     <row r="3">
@@ -26381,28 +26381,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.2106373112292</v>
+        <v>201.5403250059615</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.3153560934379</v>
+        <v>275.75636400465</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.4838554417777</v>
+        <v>249.4385636506148</v>
       </c>
       <c r="AD3" t="n">
-        <v>144210.6373112292</v>
+        <v>201540.3250059615</v>
       </c>
       <c r="AE3" t="n">
-        <v>197315.3560934379</v>
+        <v>275756.36400465</v>
       </c>
       <c r="AF3" t="n">
         <v>1.652622202177992e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>178483.8554417777</v>
+        <v>249438.5636506148</v>
       </c>
     </row>
     <row r="4">
@@ -26487,28 +26487,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>140.7203476655414</v>
+        <v>188.4619330222281</v>
       </c>
       <c r="AB4" t="n">
-        <v>192.5397878194986</v>
+        <v>257.8619311145817</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.1640607013495</v>
+        <v>233.2519503205745</v>
       </c>
       <c r="AD4" t="n">
-        <v>140720.3476655414</v>
+        <v>188461.9330222281</v>
       </c>
       <c r="AE4" t="n">
-        <v>192539.7878194986</v>
+        <v>257861.9311145817</v>
       </c>
       <c r="AF4" t="n">
         <v>1.749703925073541e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.01851851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>174164.0607013495</v>
+        <v>233251.9503205745</v>
       </c>
     </row>
     <row r="5">
@@ -26593,28 +26593,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.9469440790853</v>
+        <v>186.2424663550369</v>
       </c>
       <c r="AB5" t="n">
-        <v>176.4308976266091</v>
+        <v>254.8251589045734</v>
       </c>
       <c r="AC5" t="n">
-        <v>159.5925803794948</v>
+        <v>230.5050033881519</v>
       </c>
       <c r="AD5" t="n">
-        <v>128946.9440790853</v>
+        <v>186242.4663550369</v>
       </c>
       <c r="AE5" t="n">
-        <v>176430.8976266091</v>
+        <v>254825.1589045734</v>
       </c>
       <c r="AF5" t="n">
         <v>1.801360866538732e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.70601851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>159592.5803794948</v>
+        <v>230505.0033881519</v>
       </c>
     </row>
     <row r="6">
@@ -26699,28 +26699,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>128.3946108748917</v>
+        <v>185.6901331508433</v>
       </c>
       <c r="AB6" t="n">
-        <v>175.6751709694105</v>
+        <v>254.0694322473748</v>
       </c>
       <c r="AC6" t="n">
-        <v>158.90897921379</v>
+        <v>229.8214022224471</v>
       </c>
       <c r="AD6" t="n">
-        <v>128394.6108748917</v>
+        <v>185690.1331508433</v>
       </c>
       <c r="AE6" t="n">
-        <v>175675.1709694105</v>
+        <v>254069.4322473748</v>
       </c>
       <c r="AF6" t="n">
         <v>1.809775948938707e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.65972222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>158908.97921379</v>
+        <v>229821.4022224471</v>
       </c>
     </row>
   </sheetData>
